--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J6" s="82">
         <f t="shared" si="3"/>
-        <v>3323.87</v>
+        <v>3473.87</v>
       </c>
       <c r="K6" s="82" t="str">
         <f>'Fluxo de caixa 2024'!V31</f>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="J8" s="86">
         <f t="shared" si="5"/>
-        <v>874.06</v>
+        <v>1024.06</v>
       </c>
       <c r="K8" s="86">
         <f t="shared" si="5"/>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="J9" s="89">
         <f>TaxaCondominio!V10</f>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="K9" s="90">
         <v>600.0</v>
@@ -5831,19 +5831,19 @@
       </c>
       <c r="J27" s="97">
         <f t="shared" ref="J27:M27" si="13">I31+J8</f>
-        <v>4512.59</v>
+        <v>4662.59</v>
       </c>
       <c r="K27" s="97">
         <f t="shared" si="13"/>
-        <v>3923.87</v>
+        <v>4073.87</v>
       </c>
       <c r="L27" s="97">
         <f t="shared" si="13"/>
-        <v>4061.385556</v>
+        <v>4211.385556</v>
       </c>
       <c r="M27" s="97">
         <f t="shared" si="13"/>
-        <v>4198.901111</v>
+        <v>4348.901111</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -6042,19 +6042,19 @@
       </c>
       <c r="J31" s="97">
         <f>J27-J29-J30</f>
-        <v>3323.87</v>
+        <v>3473.87</v>
       </c>
       <c r="K31" s="97">
         <f t="shared" ref="K31:M31" si="20">K27+K28-K29-K30</f>
-        <v>3461.385556</v>
+        <v>3611.385556</v>
       </c>
       <c r="L31" s="97">
         <f t="shared" si="20"/>
-        <v>3598.901111</v>
+        <v>3748.901111</v>
       </c>
       <c r="M31" s="97">
         <f t="shared" si="20"/>
-        <v>3736.416667</v>
+        <v>3886.416667</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1"/>
@@ -7471,7 +7471,7 @@
         <v>150.0</v>
       </c>
       <c r="V7" s="120">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="W7" s="119"/>
       <c r="X7" s="119"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="V10" s="126">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="W10" s="126">
         <f t="shared" si="1"/>

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -1000,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1317,6 +1317,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -4956,9 +4959,7 @@
     <col customWidth="1" min="6" max="6" width="12.13"/>
     <col customWidth="1" min="7" max="7" width="12.75"/>
     <col customWidth="1" min="8" max="9" width="12.38"/>
-    <col customWidth="1" min="10" max="10" width="14.75"/>
-    <col customWidth="1" min="11" max="11" width="12.38"/>
-    <col customWidth="1" min="12" max="13" width="14.75"/>
+    <col customWidth="1" min="10" max="13" width="14.75"/>
     <col customWidth="1" min="14" max="26" width="8.63"/>
   </cols>
   <sheetData>
@@ -5102,7 +5103,7 @@
         <v>3311.51</v>
       </c>
       <c r="H6" s="82">
-        <f t="shared" ref="H6:J6" si="3">H31</f>
+        <f t="shared" ref="H6:K6" si="3">H31</f>
         <v>3425.2</v>
       </c>
       <c r="I6" s="82">
@@ -5113,9 +5114,9 @@
         <f t="shared" si="3"/>
         <v>3473.87</v>
       </c>
-      <c r="K6" s="82" t="str">
-        <f>'Fluxo de caixa 2024'!V31</f>
-        <v/>
+      <c r="K6" s="82">
+        <f t="shared" si="3"/>
+        <v>3529.85</v>
       </c>
       <c r="L6" s="82" t="str">
         <f>'Fluxo de caixa 2024'!W31</f>
@@ -5183,7 +5184,7 @@
       </c>
       <c r="K8" s="86">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L8" s="86">
         <f t="shared" si="5"/>
@@ -5234,8 +5235,9 @@
         <f>TaxaCondominio!V10</f>
         <v>600</v>
       </c>
-      <c r="K9" s="90">
-        <v>600.0</v>
+      <c r="K9" s="89">
+        <f>TaxaCondominio!W10</f>
+        <v>450</v>
       </c>
       <c r="L9" s="90">
         <v>600.0</v>
@@ -5259,13 +5261,13 @@
       <c r="J10" s="93">
         <v>424.06</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="93">
         <v>0.0</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="93">
         <v>0.0</v>
       </c>
-      <c r="M10" s="91">
+      <c r="M10" s="93">
         <v>0.0</v>
       </c>
     </row>
@@ -5365,7 +5367,9 @@
       <c r="H14" s="96"/>
       <c r="I14" s="96"/>
       <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
+      <c r="K14" s="96">
+        <v>0.0</v>
+      </c>
       <c r="L14" s="96"/>
       <c r="M14" s="96"/>
     </row>
@@ -5426,7 +5430,7 @@
       </c>
       <c r="K16" s="95">
         <f t="shared" si="8"/>
-        <v>312.4844444</v>
+        <v>244.02</v>
       </c>
       <c r="L16" s="95">
         <f t="shared" si="8"/>
@@ -5469,15 +5473,14 @@
         <v>76.3</v>
       </c>
       <c r="K17" s="97">
-        <f t="shared" ref="K17:K19" si="9">AVERAGE(B17:J17)</f>
+        <v>76.3</v>
+      </c>
+      <c r="L17" s="97">
+        <f t="shared" ref="L17:L19" si="9">AVERAGE(B17:J17)</f>
         <v>76.32222222</v>
       </c>
-      <c r="L17" s="97">
-        <f t="shared" ref="L17:L19" si="10">AVERAGE(B17:J17)</f>
-        <v>76.32222222</v>
-      </c>
       <c r="M17" s="97">
-        <f t="shared" ref="M17:M19" si="11">AVERAGE(B17:J17)</f>
+        <f t="shared" ref="M17:M19" si="10">AVERAGE(B17:J17)</f>
         <v>76.32222222</v>
       </c>
     </row>
@@ -5513,15 +5516,14 @@
         <v>67.42</v>
       </c>
       <c r="K18" s="97">
+        <v>67.72</v>
+      </c>
+      <c r="L18" s="97">
         <f t="shared" si="9"/>
         <v>58.38444444</v>
       </c>
-      <c r="L18" s="97">
+      <c r="M18" s="97">
         <f t="shared" si="10"/>
-        <v>58.38444444</v>
-      </c>
-      <c r="M18" s="97">
-        <f t="shared" si="11"/>
         <v>58.38444444</v>
       </c>
     </row>
@@ -5557,16 +5559,15 @@
         <f>100+100</f>
         <v>200</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="96">
+        <v>100.0</v>
+      </c>
+      <c r="L19" s="97">
         <f t="shared" si="9"/>
         <v>177.7777778</v>
       </c>
-      <c r="L19" s="97">
+      <c r="M19" s="97">
         <f t="shared" si="10"/>
-        <v>177.7777778</v>
-      </c>
-      <c r="M19" s="97">
-        <f t="shared" si="11"/>
         <v>177.7777778</v>
       </c>
     </row>
@@ -5594,47 +5595,47 @@
         <v>310</v>
       </c>
       <c r="C21" s="95">
-        <f t="shared" ref="C21:M21" si="12">SUM(C22:C25)</f>
+        <f t="shared" ref="C21:M21" si="11">SUM(C22:C25)</f>
         <v>0</v>
       </c>
       <c r="D21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="E21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="F21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>600</v>
       </c>
       <c r="G21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="H21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="I21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="J21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>845</v>
       </c>
       <c r="K21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="L21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="M21" s="95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
     </row>
@@ -5752,7 +5753,7 @@
       <c r="J24" s="97">
         <v>150.0</v>
       </c>
-      <c r="K24" s="99">
+      <c r="K24" s="97">
         <v>150.0</v>
       </c>
       <c r="L24" s="99">
@@ -5830,20 +5831,20 @@
         <v>4025.2</v>
       </c>
       <c r="J27" s="97">
-        <f t="shared" ref="J27:M27" si="13">I31+J8</f>
+        <f t="shared" ref="J27:M27" si="12">I31+J8</f>
         <v>4662.59</v>
       </c>
       <c r="K27" s="97">
-        <f t="shared" si="13"/>
-        <v>4073.87</v>
+        <f t="shared" si="12"/>
+        <v>3923.87</v>
       </c>
       <c r="L27" s="97">
-        <f t="shared" si="13"/>
-        <v>4211.385556</v>
+        <f t="shared" si="12"/>
+        <v>4129.85</v>
       </c>
       <c r="M27" s="97">
-        <f t="shared" si="13"/>
-        <v>4348.901111</v>
+        <f t="shared" si="12"/>
+        <v>4267.365556</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -5851,19 +5852,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="97" t="str">
-        <f t="shared" ref="B28:E28" si="14">B10</f>
+        <f t="shared" ref="B28:E28" si="13">B10</f>
         <v/>
       </c>
       <c r="C28" s="97" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="D28" s="97" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E28" s="97" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F28" s="97">
@@ -5882,19 +5883,18 @@
         <v>0</v>
       </c>
       <c r="J28" s="97">
-        <f t="shared" ref="J28:M28" si="15">J10</f>
+        <f>J10</f>
         <v>424.06</v>
       </c>
       <c r="K28" s="97">
-        <f t="shared" si="15"/>
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="97">
+        <f t="shared" ref="L28:M28" si="14">L10</f>
         <v>0</v>
       </c>
-      <c r="L28" s="97">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="M28" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5903,51 +5903,51 @@
         <v>39</v>
       </c>
       <c r="B29" s="97">
-        <f t="shared" ref="B29:M29" si="16">B16</f>
+        <f t="shared" ref="B29:M29" si="15">B16</f>
         <v>324.07</v>
       </c>
       <c r="C29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>334.17</v>
       </c>
       <c r="D29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>334.82</v>
       </c>
       <c r="E29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>233.37</v>
       </c>
       <c r="F29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>333.85</v>
       </c>
       <c r="G29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>335.38</v>
       </c>
       <c r="H29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>336.31</v>
       </c>
       <c r="I29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>236.67</v>
       </c>
       <c r="J29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>343.72</v>
       </c>
       <c r="K29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
+        <v>244.02</v>
+      </c>
+      <c r="L29" s="97">
+        <f t="shared" si="15"/>
         <v>312.4844444</v>
       </c>
-      <c r="L29" s="97">
-        <f t="shared" si="16"/>
-        <v>312.4844444</v>
-      </c>
       <c r="M29" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>312.4844444</v>
       </c>
     </row>
@@ -5956,51 +5956,51 @@
         <v>40</v>
       </c>
       <c r="B30" s="97">
-        <f t="shared" ref="B30:M30" si="17">B21</f>
+        <f t="shared" ref="B30:M30" si="16">B21</f>
         <v>310</v>
       </c>
       <c r="C30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="F30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="G30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="H30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="I30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="J30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>845</v>
       </c>
       <c r="K30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="L30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="M30" s="97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
     </row>
@@ -6017,11 +6017,11 @@
         <v>4048.93</v>
       </c>
       <c r="D31" s="102">
-        <f t="shared" ref="D31:E31" si="18">C31+D8-D16-D21</f>
+        <f t="shared" ref="D31:E31" si="17">C31+D8-D16-D21</f>
         <v>3314.11</v>
       </c>
       <c r="E31" s="97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3530.74</v>
       </c>
       <c r="F31" s="97">
@@ -6033,11 +6033,11 @@
         <v>3311.51</v>
       </c>
       <c r="H31" s="97">
-        <f t="shared" ref="H31:I31" si="19">H27+H28-H29-H30</f>
+        <f t="shared" ref="H31:I31" si="18">H27+H28-H29-H30</f>
         <v>3425.2</v>
       </c>
       <c r="I31" s="97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3638.53</v>
       </c>
       <c r="J31" s="97">
@@ -6045,16 +6045,16 @@
         <v>3473.87</v>
       </c>
       <c r="K31" s="97">
-        <f t="shared" ref="K31:M31" si="20">K27+K28-K29-K30</f>
-        <v>3611.385556</v>
+        <f t="shared" ref="K31:M31" si="19">K27+K28-K29-K30</f>
+        <v>3529.85</v>
       </c>
       <c r="L31" s="97">
-        <f t="shared" si="20"/>
-        <v>3748.901111</v>
+        <f t="shared" si="19"/>
+        <v>3667.365556</v>
       </c>
       <c r="M31" s="97">
-        <f t="shared" si="20"/>
-        <v>3886.416667</v>
+        <f t="shared" si="19"/>
+        <v>3804.881111</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1"/>
@@ -6070,11 +6070,11 @@
         <v>-2850</v>
       </c>
       <c r="F33" s="105">
-        <f t="shared" ref="F33:G33" si="21">SUM(E33+F24)</f>
+        <f t="shared" ref="F33:G33" si="20">SUM(E33+F24)</f>
         <v>-2700</v>
       </c>
       <c r="G33" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-2550</v>
       </c>
       <c r="H33" s="105">
@@ -6082,23 +6082,23 @@
         <v>-2400</v>
       </c>
       <c r="I33" s="105">
-        <f t="shared" ref="I33:M33" si="22">H33+150</f>
+        <f t="shared" ref="I33:M33" si="21">H33+150</f>
         <v>-2250</v>
       </c>
       <c r="J33" s="105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-2100</v>
       </c>
       <c r="K33" s="105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1950</v>
       </c>
       <c r="L33" s="105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1800</v>
       </c>
       <c r="M33" s="105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1650</v>
       </c>
     </row>
@@ -7329,10 +7329,12 @@
       <c r="V5" s="118">
         <v>150.0</v>
       </c>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
+      <c r="W5" s="119">
+        <v>150.0</v>
+      </c>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="110">
@@ -7398,13 +7400,15 @@
       <c r="U6" s="117">
         <v>150.0</v>
       </c>
-      <c r="V6" s="120">
+      <c r="V6" s="121">
         <v>150.0</v>
       </c>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
+      <c r="W6" s="119">
+        <v>150.0</v>
+      </c>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="110">
@@ -7449,7 +7453,7 @@
       <c r="N7" s="115">
         <v>150.0</v>
       </c>
-      <c r="O7" s="121">
+      <c r="O7" s="122">
         <v>150.0</v>
       </c>
       <c r="P7" s="117">
@@ -7467,16 +7471,16 @@
       <c r="T7" s="117">
         <v>150.0</v>
       </c>
-      <c r="U7" s="122">
+      <c r="U7" s="123">
         <v>150.0</v>
       </c>
-      <c r="V7" s="120">
+      <c r="V7" s="121">
         <v>150.0</v>
       </c>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="110">
@@ -7545,140 +7549,142 @@
       <c r="V8" s="118">
         <v>150.0</v>
       </c>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
+      <c r="W8" s="119">
+        <v>150.0</v>
+      </c>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="125"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="126"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="126">
+      <c r="B10" s="127">
         <f t="shared" ref="B10:Z10" si="1">SUM(B5:B8)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="E10" s="126">
+      <c r="E10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F10" s="126">
+      <c r="F10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H10" s="126">
+      <c r="H10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="I10" s="126">
+      <c r="I10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="J10" s="126">
+      <c r="J10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="K10" s="126">
+      <c r="K10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="L10" s="126">
+      <c r="L10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="M10" s="126">
+      <c r="M10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="N10" s="126">
+      <c r="N10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="O10" s="126">
+      <c r="O10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="P10" s="126">
+      <c r="P10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="Q10" s="126">
+      <c r="Q10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="R10" s="126">
+      <c r="R10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="S10" s="126">
+      <c r="S10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="T10" s="126">
+      <c r="T10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="U10" s="126">
+      <c r="U10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="126">
+      <c r="V10" s="127">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="W10" s="126">
+      <c r="W10" s="127">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="X10" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X10" s="126">
+      <c r="Y10" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="126">
+      <c r="Z10" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7714,18 +7720,18 @@
       <c r="L12" s="108"/>
       <c r="M12" s="108"/>
       <c r="N12" s="108"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="108"/>
@@ -11875,138 +11881,138 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="129" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="129"/>
+      <c r="G1" s="130"/>
     </row>
     <row r="2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="139" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="139" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="141"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="139" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="141"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="139" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="139" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="141"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="139" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="141"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="139" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="141"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="139" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="141"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="141">
+      <c r="B12" s="142">
         <v>45366.0</v>
       </c>
       <c r="C12" s="75"/>
@@ -12014,14 +12020,14 @@
         <v>64</v>
       </c>
       <c r="E12" s="75"/>
-      <c r="F12" s="142">
+      <c r="F12" s="143">
         <v>100.0</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="141"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="138"/>
-      <c r="B13" s="141">
+      <c r="A13" s="139"/>
+      <c r="B13" s="142">
         <v>45387.0</v>
       </c>
       <c r="C13" s="75"/>
@@ -12029,31 +12035,31 @@
         <v>64</v>
       </c>
       <c r="E13" s="75"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="138"/>
-      <c r="B14" s="141">
+      <c r="A14" s="139"/>
+      <c r="B14" s="142">
         <v>45415.0</v>
       </c>
       <c r="C14" s="75"/>
@@ -12061,31 +12067,31 @@
         <v>65</v>
       </c>
       <c r="E14" s="75"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="138"/>
-      <c r="B15" s="141">
+      <c r="A15" s="139"/>
+      <c r="B15" s="142">
         <v>45450.0</v>
       </c>
       <c r="C15" s="75"/>
@@ -12093,194 +12099,194 @@
         <v>64</v>
       </c>
       <c r="E15" s="75"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="141"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="75"/>
       <c r="D16" s="75"/>
       <c r="E16" s="75"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="138"/>
-      <c r="B17" s="141"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="75"/>
       <c r="D17" s="75"/>
       <c r="E17" s="75"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="145"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="146"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="139" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
       <c r="E19" s="75"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="140"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="140"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="141"/>
     </row>
     <row r="21" ht="27.0" customHeight="1">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="140"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="139" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
       <c r="D22" s="75"/>
       <c r="E22" s="75"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="140"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="140"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="141"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="140"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="141"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="140"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="141"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="151"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="140"/>
+      <c r="A26" s="152"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="141"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -5358,15 +5358,33 @@
       <c r="A14" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
+      <c r="B14" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="96">
+        <v>0.0</v>
+      </c>
       <c r="K14" s="96">
         <v>0.0</v>
       </c>

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8E34D0-0A45-457C-A26B-6ED76C307B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6346C846-88A5-4F50-96C0-AA5A98632B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,20 @@
     <sheet name="TaxaCondominio" sheetId="4" r:id="rId4"/>
     <sheet name="Manutenções" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -361,7 +374,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00;[Red]&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -521,6 +534,14 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF006411"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1206,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1537,11 +1558,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1570,6 +1589,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1613,7 +1637,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1848,68 +1872,68 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="126"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1917,222 +1941,222 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="136"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="134"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="119"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="123"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3193,18 +3217,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137"/>
-      <c r="B1" s="138" t="s">
+      <c r="A1" s="138"/>
+      <c r="B1" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="139" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -3212,16 +3236,16 @@
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="138" t="s">
+      <c r="A2" s="118"/>
+      <c r="B2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="140" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
@@ -3235,14 +3259,14 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="120"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3250,7 +3274,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="120"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5245,7 +5269,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5262,18 +5286,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143" t="s">
+      <c r="A1" s="143"/>
+      <c r="B1" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="144" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -5281,16 +5305,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="143" t="s">
+      <c r="A2" s="118"/>
+      <c r="B2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="140" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -5304,14 +5328,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="120"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -5319,7 +5343,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="120"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -5415,7 +5439,7 @@
         <v>3311.5100000000007</v>
       </c>
       <c r="H6" s="57">
-        <f t="shared" ref="H6:K6" si="2">H31</f>
+        <f t="shared" ref="H6:M6" si="2">H31</f>
         <v>3425.2000000000007</v>
       </c>
       <c r="I6" s="57">
@@ -5430,13 +5454,13 @@
         <f t="shared" si="2"/>
         <v>3084.19</v>
       </c>
-      <c r="L6" s="57">
-        <f>'Fluxo de caixa 2024'!W31</f>
-        <v>0</v>
+      <c r="L6" s="155">
+        <f t="shared" si="2"/>
+        <v>3221.7055555555557</v>
       </c>
       <c r="M6" s="57">
-        <f>'Fluxo de caixa 2024'!X31</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3359.2211111111114</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6042,7 +6066,7 @@
         <f>45+650</f>
         <v>695</v>
       </c>
-      <c r="K23" s="154">
+      <c r="K23" s="116">
         <v>410</v>
       </c>
       <c r="L23" s="70">
@@ -7445,21 +7469,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
       <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7897,32 +7921,32 @@
       <c r="Z8" s="90"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="149"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="150"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -12219,13 +12243,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="124"/>
       <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -12251,11 +12275,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="98"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6346C846-88A5-4F50-96C0-AA5A98632B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2CD9F9-3245-43D4-BD6D-6C161BDA66E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="10"/>
       <color rgb="FF006411"/>
       <name val="Calibri"/>
@@ -5269,7 +5268,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5455,12 +5454,10 @@
         <v>3084.19</v>
       </c>
       <c r="L6" s="155">
-        <f t="shared" si="2"/>
-        <v>3221.7055555555557</v>
-      </c>
-      <c r="M6" s="57">
-        <f t="shared" si="2"/>
-        <v>3359.2211111111114</v>
+        <v>0</v>
+      </c>
+      <c r="M6" s="155">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2CD9F9-3245-43D4-BD6D-6C161BDA66E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8E25D2-3C78-400D-917B-9F24D10D03C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,20 +19,7 @@
     <sheet name="TaxaCondominio" sheetId="4" r:id="rId4"/>
     <sheet name="Manutenções" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -374,7 +361,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00;[Red]&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -538,7 +525,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF006411"/>
       <name val="Calibri"/>
@@ -1226,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1636,7 +1631,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="30" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5265,10 +5261,10 @@
   <sheetPr>
     <tabColor rgb="FF7EBC0A"/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="L17" sqref="L17:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5438,7 +5434,7 @@
         <v>3311.5100000000007</v>
       </c>
       <c r="H6" s="57">
-        <f t="shared" ref="H6:M6" si="2">H31</f>
+        <f t="shared" ref="H6:L6" si="2">H31</f>
         <v>3425.2000000000007</v>
       </c>
       <c r="I6" s="57">
@@ -5451,12 +5447,13 @@
       </c>
       <c r="K6" s="57">
         <f t="shared" si="2"/>
-        <v>3084.19</v>
-      </c>
-      <c r="L6" s="155">
-        <v>0</v>
-      </c>
-      <c r="M6" s="155">
+        <v>3298.53</v>
+      </c>
+      <c r="L6" s="57">
+        <f t="shared" si="2"/>
+        <v>3509.5800000000004</v>
+      </c>
+      <c r="M6" s="156">
         <v>0</v>
       </c>
     </row>
@@ -5517,7 +5514,7 @@
       </c>
       <c r="K8" s="61">
         <f t="shared" si="4"/>
-        <v>514.34</v>
+        <v>664.34</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="4"/>
@@ -5570,7 +5567,7 @@
       </c>
       <c r="K9" s="64">
         <f>TaxaCondominio!W10</f>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L9" s="64">
         <v>600</v>
@@ -5785,7 +5782,7 @@
       </c>
       <c r="L16" s="68">
         <f t="shared" si="7"/>
-        <v>312.48444444444442</v>
+        <v>238.95</v>
       </c>
       <c r="M16" s="68">
         <f t="shared" si="7"/>
@@ -5827,11 +5824,10 @@
         <v>76.3</v>
       </c>
       <c r="L17" s="70">
-        <f t="shared" ref="L17:L19" si="8">AVERAGE(B17:J17)</f>
-        <v>76.322222222222223</v>
+        <v>76.3</v>
       </c>
       <c r="M17" s="70">
-        <f t="shared" ref="M17:M19" si="9">AVERAGE(B17:J17)</f>
+        <f t="shared" ref="M17:M19" si="8">AVERAGE(B17:J17)</f>
         <v>76.322222222222223</v>
       </c>
     </row>
@@ -5870,11 +5866,10 @@
         <v>67.72</v>
       </c>
       <c r="L18" s="70">
+        <v>62.65</v>
+      </c>
+      <c r="M18" s="70">
         <f t="shared" si="8"/>
-        <v>58.384444444444433</v>
-      </c>
-      <c r="M18" s="70">
-        <f t="shared" si="9"/>
         <v>58.384444444444433</v>
       </c>
     </row>
@@ -5914,11 +5909,10 @@
         <v>200</v>
       </c>
       <c r="L19" s="70">
+        <v>100</v>
+      </c>
+      <c r="M19" s="70">
         <f t="shared" si="8"/>
-        <v>177.77777777777777</v>
-      </c>
-      <c r="M19" s="70">
-        <f t="shared" si="9"/>
         <v>177.77777777777777</v>
       </c>
     </row>
@@ -5946,47 +5940,47 @@
         <v>310</v>
       </c>
       <c r="C21" s="68">
-        <f t="shared" ref="C21:M21" si="10">SUM(C22:C25)</f>
+        <f t="shared" ref="C21:M21" si="9">SUM(C22:C25)</f>
         <v>0</v>
       </c>
       <c r="D21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
       <c r="E21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="F21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="G21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="H21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="I21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="J21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>845</v>
       </c>
       <c r="K21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>560</v>
       </c>
       <c r="L21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="M21" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
     </row>
@@ -6182,20 +6176,20 @@
         <v>4025.2000000000007</v>
       </c>
       <c r="J27" s="70">
-        <f t="shared" ref="J27:M27" si="11">I31+J8</f>
+        <f t="shared" ref="J27:M27" si="10">I31+J8</f>
         <v>4662.59</v>
       </c>
       <c r="K27" s="70">
-        <f t="shared" si="11"/>
-        <v>3988.21</v>
+        <f t="shared" si="10"/>
+        <v>4138.21</v>
       </c>
       <c r="L27" s="70">
-        <f t="shared" si="11"/>
-        <v>3684.19</v>
+        <f t="shared" si="10"/>
+        <v>3898.53</v>
       </c>
       <c r="M27" s="70">
-        <f t="shared" si="11"/>
-        <v>3821.7055555555557</v>
+        <f t="shared" si="10"/>
+        <v>4109.58</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6203,19 +6197,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="70">
-        <f t="shared" ref="B28:E28" si="12">B10</f>
+        <f t="shared" ref="B28:E28" si="11">B10</f>
         <v>0</v>
       </c>
       <c r="C28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F28" s="70">
@@ -6237,15 +6231,15 @@
         <f>J10</f>
         <v>424.06</v>
       </c>
-      <c r="K28" s="70">
+      <c r="K28" s="65">
+        <v>64.34</v>
+      </c>
+      <c r="L28" s="70">
+        <f t="shared" ref="L28:M28" si="12">L10</f>
         <v>0</v>
       </c>
-      <c r="L28" s="70">
-        <f t="shared" ref="L28:M28" si="13">L10</f>
-        <v>0</v>
-      </c>
       <c r="M28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6254,51 +6248,51 @@
         <v>39</v>
       </c>
       <c r="B29" s="70">
-        <f t="shared" ref="B29:M29" si="14">B16</f>
+        <f t="shared" ref="B29:M29" si="13">B16</f>
         <v>324.07</v>
       </c>
       <c r="C29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>334.16999999999996</v>
       </c>
       <c r="D29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>334.82</v>
       </c>
       <c r="E29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>233.37</v>
       </c>
       <c r="F29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>333.85</v>
       </c>
       <c r="G29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>335.38</v>
       </c>
       <c r="H29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>336.31</v>
       </c>
       <c r="I29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>236.67</v>
       </c>
       <c r="J29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>343.72</v>
       </c>
       <c r="K29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>344.02</v>
       </c>
       <c r="L29" s="70">
-        <f t="shared" si="14"/>
-        <v>312.48444444444442</v>
+        <f t="shared" si="13"/>
+        <v>238.95</v>
       </c>
       <c r="M29" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>312.48444444444442</v>
       </c>
     </row>
@@ -6307,51 +6301,51 @@
         <v>40</v>
       </c>
       <c r="B30" s="70">
-        <f t="shared" ref="B30:M30" si="15">B21</f>
+        <f t="shared" ref="B30:M30" si="14">B21</f>
         <v>310</v>
       </c>
       <c r="C30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="F30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="G30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="H30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="I30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="J30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>845</v>
       </c>
       <c r="K30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>560</v>
       </c>
       <c r="L30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="M30" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
     </row>
@@ -6368,11 +6362,11 @@
         <v>4048.9300000000003</v>
       </c>
       <c r="D31" s="73">
-        <f t="shared" ref="D31:E31" si="16">C31+D8-D16-D21</f>
+        <f t="shared" ref="D31:E31" si="15">C31+D8-D16-D21</f>
         <v>3314.1100000000006</v>
       </c>
       <c r="E31" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3530.7400000000007</v>
       </c>
       <c r="F31" s="70">
@@ -6384,11 +6378,11 @@
         <v>3311.5100000000007</v>
       </c>
       <c r="H31" s="70">
-        <f t="shared" ref="H31:I31" si="17">H27+H28-H29-H30</f>
+        <f t="shared" ref="H31:I31" si="16">H27+H28-H29-H30</f>
         <v>3425.2000000000007</v>
       </c>
       <c r="I31" s="70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3638.5300000000007</v>
       </c>
       <c r="J31" s="70">
@@ -6396,20 +6390,20 @@
         <v>3473.87</v>
       </c>
       <c r="K31" s="70">
-        <f t="shared" ref="K31:M31" si="18">K27+K28-K29-K30</f>
-        <v>3084.19</v>
+        <f t="shared" ref="K31:M31" si="17">K27+K28-K29-K30</f>
+        <v>3298.53</v>
       </c>
       <c r="L31" s="70">
-        <f t="shared" si="18"/>
-        <v>3221.7055555555557</v>
+        <f t="shared" si="17"/>
+        <v>3509.5800000000004</v>
       </c>
       <c r="M31" s="70">
-        <f t="shared" si="18"/>
-        <v>3359.2211111111114</v>
+        <f t="shared" si="17"/>
+        <v>3647.0955555555556</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="74" t="s">
         <v>43</v>
       </c>
@@ -6421,11 +6415,11 @@
         <v>-2850</v>
       </c>
       <c r="F33" s="76">
-        <f t="shared" ref="F33:G33" si="19">SUM(E33+F24)</f>
+        <f t="shared" ref="F33:G33" si="18">SUM(E33+F24)</f>
         <v>-2700</v>
       </c>
       <c r="G33" s="77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-2550</v>
       </c>
       <c r="H33" s="76">
@@ -6433,41 +6427,43 @@
         <v>-2400</v>
       </c>
       <c r="I33" s="76">
-        <f t="shared" ref="I33:M33" si="20">H33+150</f>
+        <f t="shared" ref="I33:M33" si="19">H33+150</f>
         <v>-2250</v>
       </c>
       <c r="J33" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-2100</v>
       </c>
       <c r="K33" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-1950</v>
       </c>
       <c r="L33" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-1800</v>
       </c>
       <c r="M33" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-1650</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="155"/>
+    </row>
+    <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7435,7 +7431,7 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7447,7 +7443,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5:X8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7693,7 +7691,9 @@
       <c r="W5" s="90">
         <v>150</v>
       </c>
-      <c r="X5" s="90"/>
+      <c r="X5" s="90">
+        <v>150</v>
+      </c>
       <c r="Y5" s="90"/>
       <c r="Z5" s="90"/>
     </row>
@@ -7767,7 +7767,9 @@
       <c r="W6" s="90">
         <v>150</v>
       </c>
-      <c r="X6" s="90"/>
+      <c r="X6" s="90">
+        <v>150</v>
+      </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="90"/>
     </row>
@@ -7838,8 +7840,12 @@
       <c r="V7" s="89">
         <v>150</v>
       </c>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
+      <c r="W7" s="90">
+        <v>150</v>
+      </c>
+      <c r="X7" s="90">
+        <v>150</v>
+      </c>
       <c r="Y7" s="90"/>
       <c r="Z7" s="90"/>
     </row>
@@ -7913,7 +7919,9 @@
       <c r="W8" s="90">
         <v>150</v>
       </c>
-      <c r="X8" s="90"/>
+      <c r="X8" s="90">
+        <v>150</v>
+      </c>
       <c r="Y8" s="90"/>
       <c r="Z8" s="90"/>
     </row>
@@ -8035,11 +8043,11 @@
       </c>
       <c r="W10" s="92">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="X10" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Y10" s="92">
         <f t="shared" si="0"/>

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8E25D2-3C78-400D-917B-9F24D10D03C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A43B8D-DC01-4346-AA63-05D71199E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,20 @@
     <sheet name="TaxaCondominio" sheetId="4" r:id="rId4"/>
     <sheet name="Manutenções" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -125,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>Facilite ainda mais o seu trabalho</t>
   </si>
@@ -348,6 +361,12 @@
   <si>
     <t xml:space="preserve">OUTROS </t>
   </si>
+  <si>
+    <t>IR/IOF</t>
+  </si>
+  <si>
+    <t>Despesas Fixas</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +380,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00;[Red]&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -538,6 +557,20 @@
       <color rgb="FF006411"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1221,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1555,6 +1588,10 @@
     <xf numFmtId="164" fontId="28" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="30" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1631,10 +1668,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="30" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1867,68 +1904,68 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124"/>
+      <c r="B1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="126"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="126"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="130"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="133"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1936,222 +1973,222 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="136"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="119"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="121"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="119"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="119"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="123"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,18 +3249,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138"/>
-      <c r="B1" s="139" t="s">
+      <c r="A1" s="140"/>
+      <c r="B1" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="140" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -3231,16 +3268,16 @@
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="139" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="141" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
       <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
@@ -3254,14 +3291,14 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="118"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="120"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="118"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3269,7 +3306,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5261,10 +5298,10 @@
   <sheetPr>
     <tabColor rgb="FF7EBC0A"/>
   </sheetPr>
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:P1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L19"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5281,18 +5318,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143"/>
-      <c r="B1" s="144" t="s">
+      <c r="A1" s="145"/>
+      <c r="B1" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="145" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -5300,16 +5337,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="144" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="141" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -5323,14 +5360,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="118"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="120"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="118"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -5338,7 +5375,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -5410,15 +5447,15 @@
         <v>23</v>
       </c>
       <c r="B6" s="57">
-        <f>'Fluxo de caixa 2024'!M31+B8-B16-B21</f>
+        <f>'Fluxo de caixa 2024'!M31+B8-B17-B22</f>
         <v>3783.1</v>
       </c>
       <c r="C6" s="57">
-        <f>B31+C8+C28+-C29</f>
+        <f>B33+C8+C29+-C30</f>
         <v>4048.9300000000003</v>
       </c>
       <c r="D6" s="57">
-        <f t="shared" ref="D6:E6" si="0">C31+D8-D16</f>
+        <f t="shared" ref="D6:E6" si="0">C33+D8-D17</f>
         <v>4314.1100000000006</v>
       </c>
       <c r="E6" s="57">
@@ -5426,7 +5463,7 @@
         <v>3680.7400000000007</v>
       </c>
       <c r="F6" s="57">
-        <f t="shared" ref="F6:G6" si="1">E31+F8-F16-F21</f>
+        <f t="shared" ref="F6:G6" si="1">E33+F8-F17-F22</f>
         <v>3196.8900000000008</v>
       </c>
       <c r="G6" s="57">
@@ -5434,7 +5471,7 @@
         <v>3311.5100000000007</v>
       </c>
       <c r="H6" s="57">
-        <f t="shared" ref="H6:L6" si="2">H31</f>
+        <f t="shared" ref="H6:L6" si="2">H33</f>
         <v>3425.2000000000007</v>
       </c>
       <c r="I6" s="57">
@@ -5451,9 +5488,9 @@
       </c>
       <c r="L6" s="57">
         <f t="shared" si="2"/>
-        <v>3509.5800000000004</v>
-      </c>
-      <c r="M6" s="156">
+        <v>3414.7400000000002</v>
+      </c>
+      <c r="M6" s="118">
         <v>0</v>
       </c>
     </row>
@@ -5636,7 +5673,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="68">
-        <f t="shared" ref="B13:M13" si="5">SUM(B14:B15)</f>
+        <f t="shared" ref="B13:M13" si="5">SUM(B14:B16)</f>
         <v>0</v>
       </c>
       <c r="C13" s="68">
@@ -5677,7 +5714,7 @@
       </c>
       <c r="L13" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="M13" s="68">
         <f t="shared" si="5"/>
@@ -5718,743 +5755,836 @@
       <c r="K14" s="69">
         <v>0</v>
       </c>
-      <c r="L14" s="69"/>
+      <c r="L14" s="69">
+        <v>0</v>
+      </c>
       <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
+      <c r="A15" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="69">
+        <v>0</v>
+      </c>
+      <c r="C15" s="69">
+        <v>0</v>
+      </c>
+      <c r="D15" s="69">
+        <v>0</v>
+      </c>
+      <c r="E15" s="69">
+        <v>0</v>
+      </c>
+      <c r="F15" s="69">
+        <v>0</v>
+      </c>
+      <c r="G15" s="69">
+        <v>0</v>
+      </c>
+      <c r="H15" s="69">
+        <v>0</v>
+      </c>
+      <c r="I15" s="69">
+        <v>0</v>
+      </c>
+      <c r="J15" s="69">
+        <v>0</v>
+      </c>
+      <c r="K15" s="69">
+        <v>0</v>
+      </c>
+      <c r="L15" s="69">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="68">
-        <f t="shared" ref="B16:C16" si="6">B17+B18+B19</f>
+      <c r="B17" s="68">
+        <f t="shared" ref="B17:C17" si="6">B18+B19+B20</f>
         <v>324.07</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C17" s="68">
         <f t="shared" si="6"/>
         <v>334.16999999999996</v>
       </c>
-      <c r="D16" s="68">
-        <f t="shared" ref="D16:M16" si="7">SUM(D17:D20)</f>
+      <c r="D17" s="68">
+        <f t="shared" ref="D17:M17" si="7">SUM(D18:D21)</f>
         <v>334.82</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E17" s="68">
         <f t="shared" si="7"/>
         <v>233.37</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F17" s="68">
         <f t="shared" si="7"/>
         <v>333.85</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G17" s="68">
         <f t="shared" si="7"/>
         <v>335.38</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H17" s="68">
         <f t="shared" si="7"/>
         <v>336.31</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I17" s="68">
         <f t="shared" si="7"/>
         <v>236.67</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J17" s="68">
         <f t="shared" si="7"/>
         <v>343.72</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K17" s="68">
         <f t="shared" si="7"/>
         <v>344.02</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L17" s="68">
         <f t="shared" si="7"/>
-        <v>238.95</v>
-      </c>
-      <c r="M16" s="68">
+        <v>338.95</v>
+      </c>
+      <c r="M17" s="68">
         <f t="shared" si="7"/>
         <v>312.48444444444442</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B18" s="70">
         <v>76.5</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C18" s="70">
         <v>76.3</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D18" s="70">
         <v>76.3</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E18" s="70">
         <v>76.3</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F18" s="70">
         <v>76.3</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G18" s="70">
         <v>76.3</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H18" s="70">
         <v>76.3</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I18" s="70">
         <v>76.3</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J18" s="70">
         <v>76.3</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K18" s="70">
         <v>76.3</v>
       </c>
-      <c r="L17" s="70">
+      <c r="L18" s="70">
         <v>76.3</v>
       </c>
-      <c r="M17" s="70">
-        <f t="shared" ref="M17:M19" si="8">AVERAGE(B17:J17)</f>
+      <c r="M18" s="70">
+        <f t="shared" ref="M18:M20" si="8">AVERAGE(B18:J18)</f>
         <v>76.322222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B19" s="70">
         <v>47.57</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C19" s="70">
         <v>57.87</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D19" s="70">
         <v>58.52</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E19" s="70">
         <v>57.07</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F19" s="70">
         <v>57.55</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G19" s="70">
         <v>59.08</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H19" s="70">
         <v>60.01</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I19" s="70">
         <v>60.37</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J19" s="70">
         <v>67.42</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K19" s="70">
         <v>67.72</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L19" s="70">
         <v>62.65</v>
       </c>
-      <c r="M18" s="70">
+      <c r="M19" s="70">
         <f t="shared" si="8"/>
         <v>58.384444444444433</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B20" s="69">
         <v>200</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C20" s="69">
         <v>200</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D20" s="69">
         <v>200</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E20" s="69">
         <v>100</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F20" s="69">
         <v>200</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G20" s="69">
         <v>200</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H20" s="69">
         <v>200</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I20" s="69">
         <v>100</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J20" s="69">
         <f>100+100</f>
         <v>200</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K20" s="69">
         <v>200</v>
       </c>
-      <c r="L19" s="70">
-        <v>100</v>
-      </c>
-      <c r="M19" s="70">
+      <c r="L20" s="70">
+        <v>200</v>
+      </c>
+      <c r="M20" s="70">
         <f t="shared" si="8"/>
         <v>177.77777777777777</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="68">
-        <f>B22+B23+B24</f>
+      <c r="B22" s="68">
+        <f>B23+B24+B25</f>
         <v>310</v>
       </c>
-      <c r="C21" s="68">
-        <f t="shared" ref="C21:M21" si="9">SUM(C22:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="68">
+      <c r="C22" s="68">
+        <f t="shared" ref="C22:M22" si="9">SUM(C23:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="68">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E22" s="68">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F22" s="68">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G22" s="68">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H22" s="68">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I22" s="68">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J22" s="68">
         <f t="shared" si="9"/>
         <v>845</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K22" s="68">
         <f t="shared" si="9"/>
         <v>560</v>
       </c>
-      <c r="L21" s="68">
+      <c r="L22" s="68">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M22" s="68">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62" t="s">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="70">
-        <v>0</v>
-      </c>
-      <c r="C22" s="69">
-        <v>0</v>
-      </c>
-      <c r="D22" s="69">
-        <v>0</v>
-      </c>
-      <c r="E22" s="69">
-        <v>0</v>
-      </c>
-      <c r="F22" s="69">
-        <v>0</v>
-      </c>
-      <c r="G22" s="69">
-        <v>0</v>
-      </c>
-      <c r="H22" s="69">
-        <v>0</v>
-      </c>
-      <c r="I22" s="69">
-        <v>0</v>
-      </c>
-      <c r="J22" s="69">
-        <v>0</v>
-      </c>
-      <c r="K22" s="69">
-        <v>0</v>
-      </c>
-      <c r="L22" s="69">
-        <v>0</v>
-      </c>
-      <c r="M22" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62" t="s">
+      <c r="B23" s="70">
+        <v>0</v>
+      </c>
+      <c r="C23" s="69">
+        <v>0</v>
+      </c>
+      <c r="D23" s="69">
+        <v>0</v>
+      </c>
+      <c r="E23" s="69">
+        <v>0</v>
+      </c>
+      <c r="F23" s="69">
+        <v>0</v>
+      </c>
+      <c r="G23" s="69">
+        <v>0</v>
+      </c>
+      <c r="H23" s="69">
+        <v>0</v>
+      </c>
+      <c r="I23" s="69">
+        <v>0</v>
+      </c>
+      <c r="J23" s="69">
+        <v>0</v>
+      </c>
+      <c r="K23" s="69">
+        <v>0</v>
+      </c>
+      <c r="L23" s="69">
+        <v>0</v>
+      </c>
+      <c r="M23" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B24" s="70">
         <v>310</v>
       </c>
-      <c r="C23" s="70">
-        <v>0</v>
-      </c>
-      <c r="D23" s="70">
+      <c r="C24" s="70">
+        <v>0</v>
+      </c>
+      <c r="D24" s="70">
         <v>1000</v>
       </c>
-      <c r="E23" s="70">
-        <v>0</v>
-      </c>
-      <c r="F23" s="70">
+      <c r="E24" s="70">
+        <v>0</v>
+      </c>
+      <c r="F24" s="70">
         <v>450</v>
       </c>
-      <c r="G23" s="70">
-        <v>0</v>
-      </c>
-      <c r="H23" s="70">
-        <v>0</v>
-      </c>
-      <c r="I23" s="70">
-        <v>0</v>
-      </c>
-      <c r="J23" s="70">
+      <c r="G24" s="70">
+        <v>0</v>
+      </c>
+      <c r="H24" s="70">
+        <v>0</v>
+      </c>
+      <c r="I24" s="70">
+        <v>0</v>
+      </c>
+      <c r="J24" s="70">
         <f>45+650</f>
         <v>695</v>
       </c>
-      <c r="K23" s="116">
+      <c r="K24" s="116">
         <v>410</v>
       </c>
-      <c r="L23" s="70">
-        <v>0</v>
-      </c>
-      <c r="M23" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="s">
+      <c r="L24" s="70">
+        <v>0</v>
+      </c>
+      <c r="M24" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="70">
-        <v>0</v>
-      </c>
-      <c r="C24" s="70">
-        <v>0</v>
-      </c>
-      <c r="D24" s="70">
-        <v>0</v>
-      </c>
-      <c r="E24" s="70">
+      <c r="B25" s="70">
+        <v>0</v>
+      </c>
+      <c r="C25" s="70">
+        <v>0</v>
+      </c>
+      <c r="D25" s="70">
+        <v>0</v>
+      </c>
+      <c r="E25" s="70">
         <v>150</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F25" s="70">
         <v>150</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G25" s="70">
         <v>150</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H25" s="70">
         <v>150</v>
       </c>
-      <c r="I24" s="70">
+      <c r="I25" s="70">
         <v>150</v>
       </c>
-      <c r="J24" s="70">
+      <c r="J25" s="70">
         <v>150</v>
       </c>
-      <c r="K24" s="70">
+      <c r="K25" s="70">
         <v>150</v>
       </c>
-      <c r="L24" s="70">
+      <c r="L25" s="70">
         <v>150</v>
       </c>
-      <c r="M24" s="70">
+      <c r="M25" s="70">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="70">
+      <c r="B28" s="70">
         <f>'Fluxo de caixa 2024'!M31+'Fluxo de caixa 2025'!B8</f>
         <v>4417.17</v>
       </c>
-      <c r="C27" s="70">
-        <f>C8+B31</f>
+      <c r="C28" s="70">
+        <f>C8+B33</f>
         <v>4383.1000000000004</v>
       </c>
-      <c r="D27" s="70">
-        <v>0</v>
-      </c>
-      <c r="E27" s="70">
-        <f>E8</f>
-        <v>600</v>
-      </c>
-      <c r="F27" s="70">
-        <f>F8+E31</f>
+      <c r="D28" s="70">
+        <f>D8+C33</f>
+        <v>4648.93</v>
+      </c>
+      <c r="E28" s="70">
+        <f>E8+D33</f>
+        <v>3914.1100000000006</v>
+      </c>
+      <c r="F28" s="70">
+        <f>F8+E33</f>
         <v>4130.7400000000007</v>
       </c>
-      <c r="G27" s="70">
-        <f>F31+G8</f>
+      <c r="G28" s="70">
+        <f>F33+G8</f>
         <v>3796.8900000000008</v>
       </c>
-      <c r="H27" s="70">
-        <f>G31+H9</f>
+      <c r="H28" s="70">
+        <f>G33+H9</f>
         <v>3911.5100000000007</v>
       </c>
-      <c r="I27" s="70">
-        <f>I8+H31</f>
+      <c r="I28" s="70">
+        <f>I8+H33</f>
         <v>4025.2000000000007</v>
       </c>
-      <c r="J27" s="70">
-        <f t="shared" ref="J27:M27" si="10">I31+J8</f>
+      <c r="J28" s="70">
+        <f t="shared" ref="J28:M28" si="10">I33+J8</f>
         <v>4662.59</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K28" s="70">
         <f t="shared" si="10"/>
         <v>4138.21</v>
       </c>
-      <c r="L27" s="70">
+      <c r="L28" s="70">
         <f t="shared" si="10"/>
         <v>3898.53</v>
       </c>
-      <c r="M27" s="70">
+      <c r="M28" s="70">
         <f t="shared" si="10"/>
-        <v>4109.58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
+        <v>4014.7400000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="70">
-        <f t="shared" ref="B28:E28" si="11">B10</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="70">
+      <c r="B29" s="70">
+        <f t="shared" ref="B29:E29" si="11">B10</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="70">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D29" s="70">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E29" s="70">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F29" s="70">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="G28" s="70">
-        <v>0</v>
-      </c>
-      <c r="H28" s="70">
+      <c r="G29" s="70">
+        <v>0</v>
+      </c>
+      <c r="H29" s="70">
         <f>H10</f>
         <v>0</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I29" s="70">
         <f>I13</f>
         <v>0</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J29" s="70">
         <f>J10</f>
         <v>424.06</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K29" s="65">
         <v>64.34</v>
       </c>
-      <c r="L28" s="70">
-        <f t="shared" ref="L28:M28" si="12">L10</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="70">
+      <c r="L29" s="70">
+        <v>25.33</v>
+      </c>
+      <c r="M29" s="70">
+        <f>M10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="70">
+        <f t="shared" ref="B30:M30" si="12">B17</f>
+        <v>324.07</v>
+      </c>
+      <c r="C30" s="70">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="70">
-        <f t="shared" ref="B29:M29" si="13">B16</f>
-        <v>324.07</v>
-      </c>
-      <c r="C29" s="70">
-        <f t="shared" si="13"/>
         <v>334.16999999999996</v>
       </c>
-      <c r="D29" s="70">
-        <f t="shared" si="13"/>
+      <c r="D30" s="70">
+        <f t="shared" si="12"/>
         <v>334.82</v>
       </c>
-      <c r="E29" s="70">
-        <f t="shared" si="13"/>
+      <c r="E30" s="70">
+        <f t="shared" si="12"/>
         <v>233.37</v>
       </c>
-      <c r="F29" s="70">
-        <f t="shared" si="13"/>
+      <c r="F30" s="70">
+        <f t="shared" si="12"/>
         <v>333.85</v>
       </c>
-      <c r="G29" s="70">
-        <f t="shared" si="13"/>
+      <c r="G30" s="70">
+        <f t="shared" si="12"/>
         <v>335.38</v>
       </c>
-      <c r="H29" s="70">
-        <f t="shared" si="13"/>
+      <c r="H30" s="70">
+        <f t="shared" si="12"/>
         <v>336.31</v>
       </c>
-      <c r="I29" s="70">
-        <f t="shared" si="13"/>
+      <c r="I30" s="70">
+        <f t="shared" si="12"/>
         <v>236.67</v>
       </c>
-      <c r="J29" s="70">
-        <f t="shared" si="13"/>
+      <c r="J30" s="70">
+        <f t="shared" si="12"/>
         <v>343.72</v>
       </c>
-      <c r="K29" s="70">
-        <f t="shared" si="13"/>
+      <c r="K30" s="70">
+        <f t="shared" si="12"/>
         <v>344.02</v>
       </c>
-      <c r="L29" s="70">
-        <f t="shared" si="13"/>
-        <v>238.95</v>
-      </c>
-      <c r="M29" s="70">
-        <f t="shared" si="13"/>
+      <c r="L30" s="70">
+        <f t="shared" si="12"/>
+        <v>338.95</v>
+      </c>
+      <c r="M30" s="70">
+        <f t="shared" si="12"/>
         <v>312.48444444444442</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="70">
-        <f t="shared" ref="B30:M30" si="14">B21</f>
+      <c r="B31" s="70">
+        <f t="shared" ref="B31:M32" si="13">B22</f>
         <v>310</v>
       </c>
-      <c r="C30" s="70">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="70">
+      <c r="C31" s="70">
+        <f t="shared" ref="C31:M31" si="14">C22</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="70">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E31" s="70">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F31" s="70">
         <f t="shared" si="14"/>
         <v>600</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G31" s="70">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="H30" s="70">
+      <c r="H31" s="70">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="I30" s="70">
+      <c r="I31" s="70">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="J30" s="70">
+      <c r="J31" s="70">
         <f t="shared" si="14"/>
         <v>845</v>
       </c>
-      <c r="K30" s="70">
+      <c r="K31" s="70">
         <f t="shared" si="14"/>
         <v>560</v>
       </c>
-      <c r="L30" s="70">
+      <c r="L31" s="70">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="M30" s="70">
+      <c r="M31" s="70">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="s">
+      <c r="P31" s="158"/>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="70">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="70">
+        <f t="shared" ref="C32:L32" si="15">C13</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="70">
+        <f t="shared" si="15"/>
+        <v>20.170000000000002</v>
+      </c>
+      <c r="M32" s="70">
+        <f t="shared" ref="C32:M32" si="16">M23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="73">
-        <f>B27-B29-B30</f>
+      <c r="B33" s="73">
+        <f>B28-B30-B31-B32</f>
         <v>3783.1</v>
       </c>
-      <c r="C31" s="73">
-        <f>C27+C28-C29-C30</f>
+      <c r="C33" s="73">
+        <f t="shared" ref="C33:I33" si="17">C28-C30-C31-C32</f>
         <v>4048.9300000000003</v>
       </c>
-      <c r="D31" s="73">
-        <f t="shared" ref="D31:E31" si="15">C31+D8-D16-D21</f>
+      <c r="D33" s="73">
+        <f t="shared" si="17"/>
         <v>3314.1100000000006</v>
       </c>
-      <c r="E31" s="70">
-        <f t="shared" si="15"/>
+      <c r="E33" s="73">
+        <f t="shared" si="17"/>
         <v>3530.7400000000007</v>
       </c>
-      <c r="F31" s="70">
-        <f>F27+F28-F29-F30</f>
+      <c r="F33" s="73">
+        <f t="shared" si="17"/>
         <v>3196.8900000000008</v>
       </c>
-      <c r="G31" s="70">
-        <f>G27-G29-G30</f>
+      <c r="G33" s="73">
+        <f t="shared" si="17"/>
         <v>3311.5100000000007</v>
       </c>
-      <c r="H31" s="70">
-        <f t="shared" ref="H31:I31" si="16">H27+H28-H29-H30</f>
+      <c r="H33" s="73">
+        <f t="shared" si="17"/>
         <v>3425.2000000000007</v>
       </c>
-      <c r="I31" s="70">
-        <f t="shared" si="16"/>
+      <c r="I33" s="73">
+        <f t="shared" si="17"/>
         <v>3638.5300000000007</v>
       </c>
-      <c r="J31" s="70">
-        <f>J27-J29-J30</f>
+      <c r="J33" s="70">
+        <f>J28-J30-J31</f>
         <v>3473.87</v>
       </c>
-      <c r="K31" s="70">
-        <f t="shared" ref="K31:M31" si="17">K27+K28-K29-K30</f>
+      <c r="K33" s="70">
+        <f t="shared" ref="K33:M33" si="18">K28+K29-K30-K31</f>
         <v>3298.53</v>
       </c>
-      <c r="L31" s="70">
-        <f t="shared" si="17"/>
-        <v>3509.5800000000004</v>
-      </c>
-      <c r="M31" s="70">
-        <f t="shared" si="17"/>
-        <v>3647.0955555555556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+      <c r="L33" s="157">
+        <f>L28+L29-L30-L31-L32</f>
+        <v>3414.7400000000002</v>
+      </c>
+      <c r="M33" s="70">
+        <f t="shared" si="18"/>
+        <v>3552.2555555555559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D35" s="75">
         <v>-3000</v>
       </c>
-      <c r="E33" s="76">
-        <f>D33+E24</f>
+      <c r="E35" s="76">
+        <f>D35+E25</f>
         <v>-2850</v>
       </c>
-      <c r="F33" s="76">
-        <f t="shared" ref="F33:G33" si="18">SUM(E33+F24)</f>
+      <c r="F35" s="76">
+        <f t="shared" ref="F35:G35" si="19">SUM(E35+F25)</f>
         <v>-2700</v>
       </c>
-      <c r="G33" s="77">
-        <f t="shared" si="18"/>
+      <c r="G35" s="77">
+        <f t="shared" si="19"/>
         <v>-2550</v>
       </c>
-      <c r="H33" s="76">
-        <f>SUM(G33+H21)</f>
+      <c r="H35" s="76">
+        <f>SUM(G35+H22)</f>
         <v>-2400</v>
       </c>
-      <c r="I33" s="76">
-        <f t="shared" ref="I33:M33" si="19">H33+150</f>
+      <c r="I35" s="76">
+        <f t="shared" ref="I35:M35" si="20">H35+150</f>
         <v>-2250</v>
       </c>
-      <c r="J33" s="76">
-        <f t="shared" si="19"/>
+      <c r="J35" s="76">
+        <f t="shared" si="20"/>
         <v>-2100</v>
       </c>
-      <c r="K33" s="76">
-        <f t="shared" si="19"/>
+      <c r="K35" s="76">
+        <f t="shared" si="20"/>
         <v>-1950</v>
       </c>
-      <c r="L33" s="76">
-        <f t="shared" si="19"/>
+      <c r="L35" s="76">
+        <f t="shared" si="20"/>
         <v>-1800</v>
       </c>
-      <c r="M33" s="76">
-        <f t="shared" si="19"/>
+      <c r="M35" s="76">
+        <f t="shared" si="20"/>
         <v>-1650</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N37" s="155"/>
-    </row>
+    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="117"/>
+    </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7416,6 +7546,8 @@
     <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A4"/>
@@ -7464,21 +7596,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
       <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7926,32 +8058,32 @@
       <c r="Z8" s="90"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="149"/>
-      <c r="Z9" s="150"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="152"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -12248,13 +12380,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
       <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -12280,11 +12412,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="98"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="154"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A43B8D-DC01-4346-AA63-05D71199E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0DAF7B-6854-446F-8F87-745295FC28CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPA Explicações" sheetId="1" r:id="rId1"/>
     <sheet name="Fluxo de caixa 2024" sheetId="2" r:id="rId2"/>
-    <sheet name="Fluxo de caixa 2025" sheetId="3" r:id="rId3"/>
-    <sheet name="TaxaCondominio" sheetId="4" r:id="rId4"/>
-    <sheet name="Manutenções" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Gráfico1" sheetId="6" r:id="rId3"/>
+    <sheet name="Fluxo de caixa 2025" sheetId="3" r:id="rId4"/>
+    <sheet name="TaxaCondominio" sheetId="4" r:id="rId5"/>
+    <sheet name="Manutenções" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -380,7 +381,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00;[Red]&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -549,14 +550,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF006411"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1254,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1589,9 +1582,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="30" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1668,10 +1662,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,6 +1677,811 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="348050543"/>
+        <c:axId val="348051503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="348050543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348051503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348051503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348050543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07605F6F-E3BD-4C84-B022-31188E53992B}">
+  <sheetPr>
+    <tabColor rgb="FF7EBC0A"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9647115" cy="6008077"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3042F9F7-6E3B-9CB5-39DE-6C7788FF84B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1904,68 +2699,68 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1973,222 +2768,222 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="137"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="122"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="123"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="124"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,18 +4044,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140"/>
-      <c r="B1" s="141" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="142" t="s">
+      <c r="C1" s="121"/>
+      <c r="D1" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -3268,16 +4063,16 @@
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="141" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="143" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
@@ -3291,14 +4086,14 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="120"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3306,7 +4101,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="120"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5301,7 +6096,7 @@
   <dimension ref="A1:P1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5318,18 +6113,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145"/>
-      <c r="B1" s="146" t="s">
+      <c r="A1" s="146"/>
+      <c r="B1" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="147" t="s">
+      <c r="C1" s="121"/>
+      <c r="D1" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -5337,16 +6132,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="146" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="143" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -5360,14 +6155,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="120"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -5375,7 +6170,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="120"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -5471,7 +6266,7 @@
         <v>3311.5100000000007</v>
       </c>
       <c r="H6" s="57">
-        <f t="shared" ref="H6:L6" si="2">H33</f>
+        <f t="shared" ref="H6:M6" si="2">H33</f>
         <v>3425.2000000000007</v>
       </c>
       <c r="I6" s="57">
@@ -5488,10 +6283,11 @@
       </c>
       <c r="L6" s="57">
         <f t="shared" si="2"/>
-        <v>3414.7400000000002</v>
-      </c>
-      <c r="M6" s="118">
-        <v>0</v>
+        <v>3440.07</v>
+      </c>
+      <c r="M6" s="57">
+        <f t="shared" si="2"/>
+        <v>3194</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5555,11 +6351,11 @@
       </c>
       <c r="L8" s="61">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>625.33000000000004</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>470.6</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5607,10 +6403,12 @@
         <v>600</v>
       </c>
       <c r="L9" s="64">
+        <f>TaxaCondominio!X10</f>
         <v>600</v>
       </c>
       <c r="M9" s="64">
-        <v>600</v>
+        <f>TaxaCondominio!Y10</f>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5632,10 +6430,10 @@
         <v>64.34</v>
       </c>
       <c r="L10" s="65">
-        <v>0</v>
+        <v>25.33</v>
       </c>
       <c r="M10" s="65">
-        <v>0</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5758,7 +6556,9 @@
       <c r="L14" s="69">
         <v>0</v>
       </c>
-      <c r="M14" s="69"/>
+      <c r="M14" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
@@ -5797,7 +6597,9 @@
       <c r="L15" s="69">
         <v>20.170000000000002</v>
       </c>
-      <c r="M15" s="69"/>
+      <c r="M15" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
@@ -5864,7 +6666,7 @@
       </c>
       <c r="M17" s="68">
         <f t="shared" si="7"/>
-        <v>312.48444444444442</v>
+        <v>336.66999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5905,8 +6707,7 @@
         <v>76.3</v>
       </c>
       <c r="M18" s="70">
-        <f t="shared" ref="M18:M20" si="8">AVERAGE(B18:J18)</f>
-        <v>76.322222222222223</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5947,8 +6748,7 @@
         <v>62.65</v>
       </c>
       <c r="M19" s="70">
-        <f t="shared" si="8"/>
-        <v>58.384444444444433</v>
+        <v>60.37</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5990,8 +6790,7 @@
         <v>200</v>
       </c>
       <c r="M20" s="70">
-        <f t="shared" si="8"/>
-        <v>177.77777777777777</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6018,48 +6817,48 @@
         <v>310</v>
       </c>
       <c r="C22" s="68">
-        <f t="shared" ref="C22:M22" si="9">SUM(C23:C26)</f>
+        <f t="shared" ref="C22:M22" si="8">SUM(C23:C26)</f>
         <v>0</v>
       </c>
       <c r="D22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="F22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="G22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="H22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="I22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="J22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>845</v>
       </c>
       <c r="K22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
       <c r="L22" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="M22" s="68">
-        <f t="shared" si="9"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6142,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="70">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6255,20 +7054,20 @@
         <v>4025.2000000000007</v>
       </c>
       <c r="J28" s="70">
-        <f t="shared" ref="J28:M28" si="10">I33+J8</f>
+        <f t="shared" ref="J28:M28" si="9">I33+J8</f>
         <v>4662.59</v>
       </c>
       <c r="K28" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4138.21</v>
       </c>
       <c r="L28" s="70">
-        <f t="shared" si="10"/>
-        <v>3898.53</v>
+        <f t="shared" si="9"/>
+        <v>3923.86</v>
       </c>
       <c r="M28" s="70">
-        <f t="shared" si="10"/>
-        <v>4014.7400000000002</v>
+        <f t="shared" si="9"/>
+        <v>3910.67</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6276,19 +7075,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="70">
-        <f t="shared" ref="B29:E29" si="11">B10</f>
+        <f t="shared" ref="B29:E29" si="10">B10</f>
         <v>0</v>
       </c>
       <c r="C29" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D29" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E29" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F29" s="70">
@@ -6310,15 +7109,17 @@
         <f>J10</f>
         <v>424.06</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="70">
+        <f t="shared" ref="K29:M29" si="11">K10</f>
         <v>64.34</v>
       </c>
       <c r="L29" s="70">
+        <f t="shared" si="11"/>
         <v>25.33</v>
       </c>
       <c r="M29" s="70">
-        <f>M10</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>20.6</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6371,7 +7172,7 @@
       </c>
       <c r="M30" s="70">
         <f t="shared" si="12"/>
-        <v>312.48444444444442</v>
+        <v>336.66999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6379,7 +7180,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="70">
-        <f t="shared" ref="B31:M32" si="13">B22</f>
+        <f t="shared" ref="B31" si="13">B22</f>
         <v>310</v>
       </c>
       <c r="C31" s="70">
@@ -6424,9 +7225,9 @@
       </c>
       <c r="M31" s="70">
         <f t="shared" si="14"/>
-        <v>150</v>
-      </c>
-      <c r="P31" s="158"/>
+        <v>380</v>
+      </c>
+      <c r="P31" s="119"/>
     </row>
     <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62" t="s">
@@ -6477,7 +7278,7 @@
         <v>20.170000000000002</v>
       </c>
       <c r="M32" s="70">
-        <f t="shared" ref="C32:M32" si="16">M23</f>
+        <f t="shared" ref="M32" si="16">M23</f>
         <v>0</v>
       </c>
     </row>
@@ -6525,13 +7326,13 @@
         <f t="shared" ref="K33:M33" si="18">K28+K29-K30-K31</f>
         <v>3298.53</v>
       </c>
-      <c r="L33" s="157">
+      <c r="L33" s="118">
         <f>L28+L29-L30-L31-L32</f>
-        <v>3414.7400000000002</v>
+        <v>3440.07</v>
       </c>
       <c r="M33" s="70">
-        <f t="shared" si="18"/>
-        <v>3552.2555555555559</v>
+        <f>M28-M30-M31</f>
+        <v>3194</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7575,8 +8376,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5:X8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7596,21 +8397,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7820,13 +8621,15 @@
       <c r="V5" s="89">
         <v>150</v>
       </c>
-      <c r="W5" s="90">
+      <c r="W5" s="89">
         <v>150</v>
       </c>
-      <c r="X5" s="90">
+      <c r="X5" s="89">
         <v>150</v>
       </c>
-      <c r="Y5" s="90"/>
+      <c r="Y5" s="89">
+        <v>150</v>
+      </c>
       <c r="Z5" s="90"/>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7896,13 +8699,15 @@
       <c r="V6" s="89">
         <v>150</v>
       </c>
-      <c r="W6" s="90">
+      <c r="W6" s="89">
         <v>150</v>
       </c>
-      <c r="X6" s="90">
+      <c r="X6" s="89">
         <v>150</v>
       </c>
-      <c r="Y6" s="90"/>
+      <c r="Y6" s="89">
+        <v>150</v>
+      </c>
       <c r="Z6" s="90"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7972,10 +8777,10 @@
       <c r="V7" s="89">
         <v>150</v>
       </c>
-      <c r="W7" s="90">
+      <c r="W7" s="89">
         <v>150</v>
       </c>
-      <c r="X7" s="90">
+      <c r="X7" s="89">
         <v>150</v>
       </c>
       <c r="Y7" s="90"/>
@@ -8048,42 +8853,44 @@
       <c r="V8" s="89">
         <v>150</v>
       </c>
-      <c r="W8" s="90">
+      <c r="W8" s="89">
         <v>150</v>
       </c>
-      <c r="X8" s="90">
+      <c r="X8" s="89">
         <v>150</v>
       </c>
-      <c r="Y8" s="90"/>
+      <c r="Y8" s="89">
+        <v>150</v>
+      </c>
       <c r="Z8" s="90"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="152"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="153"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -8183,7 +8990,7 @@
       </c>
       <c r="Y10" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="Z10" s="92">
         <f t="shared" si="0"/>
@@ -12380,13 +13187,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -12412,11 +13219,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="98"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0DAF7B-6854-446F-8F87-745295FC28CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689FABA0-B3EA-4CC5-A5A0-B736ACEAE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPA Explicações" sheetId="1" r:id="rId1"/>
     <sheet name="Fluxo de caixa 2024" sheetId="2" r:id="rId2"/>
-    <sheet name="Gráfico1" sheetId="6" r:id="rId3"/>
-    <sheet name="Fluxo de caixa 2025" sheetId="3" r:id="rId4"/>
+    <sheet name="Fluxo de caixa 2025" sheetId="3" r:id="rId3"/>
+    <sheet name="Fluxo de caixa 2026" sheetId="7" r:id="rId4"/>
     <sheet name="TaxaCondominio" sheetId="4" r:id="rId5"/>
     <sheet name="Manutenções" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
   <si>
     <t>Facilite ainda mais o seu trabalho</t>
   </si>
@@ -381,7 +381,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00;[Red]&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -564,6 +564,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1247,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1504,9 +1511,6 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,6 +1590,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1662,6 +1667,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1677,811 +1685,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="348050543"/>
-        <c:axId val="348051503"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="348050543"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="348051503"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="348051503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="348050543"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07605F6F-E3BD-4C84-B022-31188E53992B}">
-  <sheetPr>
-    <tabColor rgb="FF7EBC0A"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9647115" cy="6008077"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3042F9F7-6E3B-9CB5-39DE-6C7788FF84B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2687,7 +1890,9 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4031,7 +3236,9 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6095,8 +5302,8 @@
   </sheetPr>
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6287,7 +5494,7 @@
       </c>
       <c r="M6" s="57">
         <f t="shared" si="2"/>
-        <v>3194</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6355,7 +5562,7 @@
       </c>
       <c r="M8" s="61">
         <f t="shared" si="4"/>
-        <v>470.6</v>
+        <v>620.6</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6408,7 +5615,7 @@
       </c>
       <c r="M9" s="64">
         <f>TaxaCondominio!Y10</f>
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6934,7 +6141,7 @@
         <f>45+650</f>
         <v>695</v>
       </c>
-      <c r="K24" s="116">
+      <c r="K24" s="115">
         <v>410</v>
       </c>
       <c r="L24" s="70">
@@ -7067,7 +6274,7 @@
       </c>
       <c r="M28" s="70">
         <f t="shared" si="9"/>
-        <v>3910.67</v>
+        <v>4060.67</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7227,7 +6434,7 @@
         <f t="shared" si="14"/>
         <v>380</v>
       </c>
-      <c r="P31" s="119"/>
+      <c r="P31" s="118"/>
     </row>
     <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62" t="s">
@@ -7323,16 +6530,16 @@
         <v>3473.87</v>
       </c>
       <c r="K33" s="70">
-        <f t="shared" ref="K33:M33" si="18">K28+K29-K30-K31</f>
+        <f t="shared" ref="K33" si="18">K28+K29-K30-K31</f>
         <v>3298.53</v>
       </c>
-      <c r="L33" s="118">
+      <c r="L33" s="117">
         <f>L28+L29-L30-L31-L32</f>
         <v>3440.07</v>
       </c>
       <c r="M33" s="70">
         <f>M28-M30-M31</f>
-        <v>3194</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7384,7 +6591,7 @@
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N39" s="117"/>
+      <c r="N39" s="116"/>
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8369,6 +7576,2216 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBAE314-5C93-4389-B302-08B220D7C7FD}">
+  <sheetPr>
+    <tabColor rgb="FF7EBC0A"/>
+  </sheetPr>
+  <dimension ref="A1:P1002"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="26" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="146"/>
+      <c r="B1" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="121"/>
+      <c r="D1" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="121"/>
+      <c r="B2" s="147" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="44">
+        <v>2026</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="121"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="121"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="55" t="str">
+        <f>CONCATENATE("Janeiro/",$H$2)</f>
+        <v>Janeiro/2026</v>
+      </c>
+      <c r="C5" s="55" t="str">
+        <f>CONCATENATE("Fevereiro/",$H$2)</f>
+        <v>Fevereiro/2026</v>
+      </c>
+      <c r="D5" s="55" t="str">
+        <f>CONCATENATE("Março/",$H$2)</f>
+        <v>Março/2026</v>
+      </c>
+      <c r="E5" s="55" t="str">
+        <f>CONCATENATE("Abril/",$H$2)</f>
+        <v>Abril/2026</v>
+      </c>
+      <c r="F5" s="55" t="str">
+        <f>CONCATENATE("Maio/",$H$2)</f>
+        <v>Maio/2026</v>
+      </c>
+      <c r="G5" s="55" t="str">
+        <f>CONCATENATE("Junho/",$H$2)</f>
+        <v>Junho/2026</v>
+      </c>
+      <c r="H5" s="55" t="str">
+        <f>CONCATENATE("Julho/",$H$2)</f>
+        <v>Julho/2026</v>
+      </c>
+      <c r="I5" s="55" t="str">
+        <f>CONCATENATE("Agosto/",$H$2)</f>
+        <v>Agosto/2026</v>
+      </c>
+      <c r="J5" s="55" t="str">
+        <f>CONCATENATE("Setembro/",$H$2)</f>
+        <v>Setembro/2026</v>
+      </c>
+      <c r="K5" s="55" t="str">
+        <f>CONCATENATE("Outubro/",$H$2)</f>
+        <v>Outubro/2026</v>
+      </c>
+      <c r="L5" s="55" t="str">
+        <f>CONCATENATE("Novembro/",$H$2)</f>
+        <v>Novembro/2026</v>
+      </c>
+      <c r="M5" s="55" t="str">
+        <f>CONCATENATE("Dezembro/",$H$2)</f>
+        <v>Dezembro/2026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="57">
+        <f>'Fluxo de caixa 2025'!M33+B8-B17-B22</f>
+        <v>2598.35</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="61">
+        <f>SUM(B9:B11)</f>
+        <v>600</v>
+      </c>
+      <c r="C8" s="61">
+        <f>C9</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61">
+        <f t="shared" ref="D8:E8" si="0">D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
+        <f t="shared" ref="F8:M8" si="1">SUM(F9:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="63">
+        <f>TaxaCondominio!Z10</f>
+        <v>600</v>
+      </c>
+      <c r="C9" s="63">
+        <f>TaxaCondominio!AA10</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="63">
+        <f>TaxaCondominio!AB10</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="63">
+        <f>TaxaCondominio!AC10</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="63">
+        <f>TaxaCondominio!AD10</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="63">
+        <f>TaxaCondominio!AE10</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="63">
+        <f>TaxaCondominio!AF10</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="63">
+        <f>TaxaCondominio!AG10</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="63">
+        <f>TaxaCondominio!AH10</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <f>TaxaCondominio!AI10</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="63">
+        <f>TaxaCondominio!AJ10</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="63">
+        <f>TaxaCondominio!AK10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="68">
+        <f t="shared" ref="B13:M13" si="2">SUM(B14:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="68">
+        <f t="shared" si="2"/>
+        <v>20.170000000000002</v>
+      </c>
+      <c r="M13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="69">
+        <v>0</v>
+      </c>
+      <c r="C14" s="69">
+        <v>0</v>
+      </c>
+      <c r="D14" s="69">
+        <v>0</v>
+      </c>
+      <c r="E14" s="69">
+        <v>0</v>
+      </c>
+      <c r="F14" s="69">
+        <v>0</v>
+      </c>
+      <c r="G14" s="69">
+        <v>0</v>
+      </c>
+      <c r="H14" s="69">
+        <v>0</v>
+      </c>
+      <c r="I14" s="69">
+        <v>0</v>
+      </c>
+      <c r="J14" s="69">
+        <v>0</v>
+      </c>
+      <c r="K14" s="69">
+        <v>0</v>
+      </c>
+      <c r="L14" s="69">
+        <v>0</v>
+      </c>
+      <c r="M14" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="69">
+        <v>0</v>
+      </c>
+      <c r="C15" s="69">
+        <v>0</v>
+      </c>
+      <c r="D15" s="69">
+        <v>0</v>
+      </c>
+      <c r="E15" s="69">
+        <v>0</v>
+      </c>
+      <c r="F15" s="69">
+        <v>0</v>
+      </c>
+      <c r="G15" s="69">
+        <v>0</v>
+      </c>
+      <c r="H15" s="69">
+        <v>0</v>
+      </c>
+      <c r="I15" s="69">
+        <v>0</v>
+      </c>
+      <c r="J15" s="69">
+        <v>0</v>
+      </c>
+      <c r="K15" s="69">
+        <v>0</v>
+      </c>
+      <c r="L15" s="69">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="M15" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="68">
+        <f t="shared" ref="B17:C17" si="3">B18+B19+B20</f>
+        <v>345.65</v>
+      </c>
+      <c r="C17" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="68">
+        <f t="shared" ref="D17:M17" si="4">SUM(D18:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="70">
+        <v>80.22</v>
+      </c>
+      <c r="C18" s="70">
+        <v>0</v>
+      </c>
+      <c r="D18" s="70">
+        <v>0</v>
+      </c>
+      <c r="E18" s="70">
+        <v>0</v>
+      </c>
+      <c r="F18" s="70">
+        <v>0</v>
+      </c>
+      <c r="G18" s="70">
+        <v>0</v>
+      </c>
+      <c r="H18" s="70">
+        <v>0</v>
+      </c>
+      <c r="I18" s="70">
+        <v>0</v>
+      </c>
+      <c r="J18" s="70">
+        <v>0</v>
+      </c>
+      <c r="K18" s="70">
+        <v>0</v>
+      </c>
+      <c r="L18" s="70">
+        <v>0</v>
+      </c>
+      <c r="M18" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="70">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="C19" s="70">
+        <v>0</v>
+      </c>
+      <c r="D19" s="70">
+        <v>0</v>
+      </c>
+      <c r="E19" s="70">
+        <v>0</v>
+      </c>
+      <c r="F19" s="70">
+        <v>0</v>
+      </c>
+      <c r="G19" s="70">
+        <v>0</v>
+      </c>
+      <c r="H19" s="70">
+        <v>0</v>
+      </c>
+      <c r="I19" s="70">
+        <v>0</v>
+      </c>
+      <c r="J19" s="70">
+        <v>0</v>
+      </c>
+      <c r="K19" s="70">
+        <v>0</v>
+      </c>
+      <c r="L19" s="70">
+        <v>0</v>
+      </c>
+      <c r="M19" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="69">
+        <v>200</v>
+      </c>
+      <c r="C20" s="69">
+        <v>0</v>
+      </c>
+      <c r="D20" s="69">
+        <v>0</v>
+      </c>
+      <c r="E20" s="69">
+        <v>0</v>
+      </c>
+      <c r="F20" s="69">
+        <v>0</v>
+      </c>
+      <c r="G20" s="69">
+        <v>0</v>
+      </c>
+      <c r="H20" s="69">
+        <v>0</v>
+      </c>
+      <c r="I20" s="69">
+        <v>0</v>
+      </c>
+      <c r="J20" s="69">
+        <v>0</v>
+      </c>
+      <c r="K20" s="69">
+        <v>0</v>
+      </c>
+      <c r="L20" s="69">
+        <v>0</v>
+      </c>
+      <c r="M20" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="68">
+        <f>B23+B24+B25</f>
+        <v>1000</v>
+      </c>
+      <c r="C22" s="68">
+        <f t="shared" ref="C22:M22" si="5">SUM(C23:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="70">
+        <v>0</v>
+      </c>
+      <c r="C23" s="69">
+        <v>0</v>
+      </c>
+      <c r="D23" s="69">
+        <v>0</v>
+      </c>
+      <c r="E23" s="69">
+        <v>0</v>
+      </c>
+      <c r="F23" s="69">
+        <v>0</v>
+      </c>
+      <c r="G23" s="69">
+        <v>0</v>
+      </c>
+      <c r="H23" s="69">
+        <v>0</v>
+      </c>
+      <c r="I23" s="69">
+        <v>0</v>
+      </c>
+      <c r="J23" s="69">
+        <v>0</v>
+      </c>
+      <c r="K23" s="69">
+        <v>0</v>
+      </c>
+      <c r="L23" s="69">
+        <v>0</v>
+      </c>
+      <c r="M23" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="70">
+        <v>850</v>
+      </c>
+      <c r="C24" s="70">
+        <v>0</v>
+      </c>
+      <c r="D24" s="70">
+        <v>0</v>
+      </c>
+      <c r="E24" s="70">
+        <v>0</v>
+      </c>
+      <c r="F24" s="70">
+        <v>0</v>
+      </c>
+      <c r="G24" s="70">
+        <v>0</v>
+      </c>
+      <c r="H24" s="70">
+        <v>0</v>
+      </c>
+      <c r="I24" s="70">
+        <v>0</v>
+      </c>
+      <c r="J24" s="70">
+        <v>0</v>
+      </c>
+      <c r="K24" s="70">
+        <v>0</v>
+      </c>
+      <c r="L24" s="70">
+        <v>0</v>
+      </c>
+      <c r="M24" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="70">
+        <v>150</v>
+      </c>
+      <c r="C25" s="70">
+        <v>0</v>
+      </c>
+      <c r="D25" s="70">
+        <v>0</v>
+      </c>
+      <c r="E25" s="70">
+        <v>0</v>
+      </c>
+      <c r="F25" s="70">
+        <v>0</v>
+      </c>
+      <c r="G25" s="70">
+        <v>0</v>
+      </c>
+      <c r="H25" s="70">
+        <v>0</v>
+      </c>
+      <c r="I25" s="70">
+        <v>0</v>
+      </c>
+      <c r="J25" s="70">
+        <v>0</v>
+      </c>
+      <c r="K25" s="70">
+        <v>0</v>
+      </c>
+      <c r="L25" s="70">
+        <v>0</v>
+      </c>
+      <c r="M25" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="70">
+        <f>'Fluxo de caixa 2025'!M33+'Fluxo de caixa 2026'!B8</f>
+        <v>3944</v>
+      </c>
+      <c r="C28" s="70">
+        <v>0</v>
+      </c>
+      <c r="D28" s="70">
+        <v>0</v>
+      </c>
+      <c r="E28" s="70">
+        <v>0</v>
+      </c>
+      <c r="F28" s="70">
+        <v>0</v>
+      </c>
+      <c r="G28" s="70">
+        <v>0</v>
+      </c>
+      <c r="H28" s="70">
+        <v>0</v>
+      </c>
+      <c r="I28" s="70">
+        <v>0</v>
+      </c>
+      <c r="J28" s="70">
+        <v>0</v>
+      </c>
+      <c r="K28" s="70">
+        <v>0</v>
+      </c>
+      <c r="L28" s="70">
+        <v>0</v>
+      </c>
+      <c r="M28" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="70">
+        <f t="shared" ref="B29:E29" si="6">B10</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="70">
+        <f>F13</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="70">
+        <v>0</v>
+      </c>
+      <c r="H29" s="70">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="70">
+        <f>I13</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="70">
+        <f>J10</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="70">
+        <f t="shared" ref="K29:M29" si="7">K10</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="70">
+        <f t="shared" ref="B30:M30" si="8">B17</f>
+        <v>345.65</v>
+      </c>
+      <c r="C30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="70">
+        <f t="shared" ref="B31:M32" si="9">B22</f>
+        <v>1000</v>
+      </c>
+      <c r="C31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="118"/>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="70">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="70">
+        <f t="shared" ref="C32:L32" si="10">C13</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="70">
+        <f t="shared" si="10"/>
+        <v>20.170000000000002</v>
+      </c>
+      <c r="M32" s="70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="73">
+        <f>B28-B30-B31-B32</f>
+        <v>2598.35</v>
+      </c>
+      <c r="C33" s="73">
+        <f t="shared" ref="C33:I33" si="11">C28-C30-C31-C32</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="70">
+        <f>J28-J30-J31</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="70">
+        <f t="shared" ref="K33" si="12">K28+K29-K30-K31</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="117">
+        <f>L28+L29-L30-L31-L32</f>
+        <v>-20.170000000000002</v>
+      </c>
+      <c r="M33" s="70">
+        <f>M28-M30-M31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="119">
+        <f>'Fluxo de caixa 2025'!M35 + B25</f>
+        <v>-1500</v>
+      </c>
+      <c r="D35" s="75"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+    </row>
+    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="118"/>
+      <c r="I36" s="118"/>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="118"/>
+    </row>
+    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="116"/>
+    </row>
+    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="118"/>
+    </row>
+    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="118"/>
+    </row>
+    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0BBF6038-DAD6-4ACD-B60D-5B091CBA3D12}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7EBC0A"/>
@@ -8377,7 +9794,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8630,7 +10047,9 @@
       <c r="Y5" s="89">
         <v>150</v>
       </c>
-      <c r="Z5" s="90"/>
+      <c r="Z5" s="158">
+        <v>150</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
@@ -8708,7 +10127,9 @@
       <c r="Y6" s="89">
         <v>150</v>
       </c>
-      <c r="Z6" s="90"/>
+      <c r="Z6" s="89">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
@@ -8753,7 +10174,7 @@
       <c r="N7" s="86">
         <v>150</v>
       </c>
-      <c r="O7" s="91">
+      <c r="O7" s="90">
         <v>150</v>
       </c>
       <c r="P7" s="88">
@@ -8783,8 +10204,12 @@
       <c r="X7" s="89">
         <v>150</v>
       </c>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
+      <c r="Y7" s="89">
+        <v>150</v>
+      </c>
+      <c r="Z7" s="89">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
@@ -8862,7 +10287,9 @@
       <c r="Y8" s="89">
         <v>150</v>
       </c>
-      <c r="Z8" s="90"/>
+      <c r="Z8" s="89">
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="151"/>
@@ -8896,105 +10323,105 @@
       <c r="A10" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="91">
         <f t="shared" ref="B10:Z10" si="0">SUM(B5:B8)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="K10" s="92">
+      <c r="K10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="L10" s="92">
+      <c r="L10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="M10" s="92">
+      <c r="M10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="N10" s="92">
+      <c r="N10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="O10" s="92">
+      <c r="O10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="P10" s="92">
+      <c r="P10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="Q10" s="92">
+      <c r="Q10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="R10" s="92">
+      <c r="R10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="S10" s="92">
+      <c r="S10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="T10" s="92">
+      <c r="T10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="U10" s="92">
+      <c r="U10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="V10" s="92">
+      <c r="V10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="W10" s="92">
+      <c r="W10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="X10" s="92">
+      <c r="X10" s="91">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="Y10" s="92">
+      <c r="Y10" s="91">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="Z10" s="92">
+        <v>600</v>
+      </c>
+      <c r="Z10" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9028,18 +10455,18 @@
       <c r="L12" s="79"/>
       <c r="M12" s="79"/>
       <c r="N12" s="79"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
@@ -13160,7 +14587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7EBC0A"/>
@@ -13194,131 +14621,131 @@
       <c r="D1" s="126"/>
       <c r="E1" s="126"/>
       <c r="F1" s="127"/>
-      <c r="G1" s="94"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="97"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="155"/>
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="156"/>
       <c r="F3" s="157"/>
-      <c r="G3" s="99"/>
+      <c r="G3" s="98"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="99" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="99" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="99" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="102">
         <v>45366</v>
       </c>
       <c r="C12" s="50"/>
@@ -13326,14 +14753,14 @@
         <v>64</v>
       </c>
       <c r="E12" s="50"/>
-      <c r="F12" s="104">
+      <c r="F12" s="103">
         <v>100</v>
       </c>
-      <c r="G12" s="102"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="100"/>
-      <c r="B13" s="103">
+      <c r="A13" s="99"/>
+      <c r="B13" s="102">
         <v>45387</v>
       </c>
       <c r="C13" s="50"/>
@@ -13341,31 +14768,31 @@
         <v>64</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="100"/>
-      <c r="B14" s="103">
+      <c r="A14" s="99"/>
+      <c r="B14" s="102">
         <v>45415</v>
       </c>
       <c r="C14" s="50"/>
@@ -13373,31 +14800,31 @@
         <v>65</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="103">
+      <c r="A15" s="99"/>
+      <c r="B15" s="102">
         <v>45450</v>
       </c>
       <c r="C15" s="50"/>
@@ -13405,194 +14832,194 @@
         <v>64</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="100"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="107"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="106"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="99" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="101"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="102"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="102"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="99" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="101"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="102"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="102"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="102"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="102"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689FABA0-B3EA-4CC5-A5A0-B736ACEAE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3093AE-BD20-4CB2-A1FE-079F90446DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1591,6 +1591,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1667,9 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,68 +1904,68 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="127"/>
+      <c r="B1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1973,222 +1973,222 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="138"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="123"/>
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="123"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,18 +3251,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141"/>
-      <c r="B1" s="142" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="143" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -3270,16 +3270,16 @@
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="142" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="144" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
@@ -3293,14 +3293,14 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="121"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3308,7 +3308,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5320,18 +5320,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147" t="s">
+      <c r="A1" s="147"/>
+      <c r="B1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="148" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -5339,16 +5339,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="147" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="144" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -5362,14 +5362,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="121"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -5377,7 +5377,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -7583,7 +7583,7 @@
   <dimension ref="A1:P1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7600,18 +7600,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147" t="s">
+      <c r="A1" s="147"/>
+      <c r="B1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="148" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -7619,16 +7619,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="147" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="144" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -7642,14 +7642,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="121"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -7657,7 +7657,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B6" s="57">
         <f>'Fluxo de caixa 2025'!M33+B8-B17-B22</f>
-        <v>2598.35</v>
+        <v>2634.45</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="B8" s="61">
         <f>SUM(B9:B11)</f>
-        <v>600</v>
+        <v>636.1</v>
       </c>
       <c r="C8" s="61">
         <f>C9</f>
@@ -7869,7 +7869,9 @@
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="65">
+        <v>36.1</v>
+      </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
       <c r="E10" s="65"/>
@@ -8467,7 +8469,7 @@
       </c>
       <c r="B28" s="70">
         <f>'Fluxo de caixa 2025'!M33+'Fluxo de caixa 2026'!B8</f>
-        <v>3944</v>
+        <v>3980.1</v>
       </c>
       <c r="C28" s="70">
         <v>0</v>
@@ -8509,7 +8511,7 @@
       </c>
       <c r="B29" s="70">
         <f t="shared" ref="B29:E29" si="6">B10</f>
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="C29" s="70">
         <f t="shared" si="6"/>
@@ -8721,7 +8723,7 @@
       </c>
       <c r="B33" s="73">
         <f>B28-B30-B31-B32</f>
-        <v>2598.35</v>
+        <v>2634.45</v>
       </c>
       <c r="C33" s="73">
         <f t="shared" ref="C33:I33" si="11">C28-C30-C31-C32</f>
@@ -8797,6 +8799,7 @@
       <c r="E38" s="118"/>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="118"/>
       <c r="N39" s="116"/>
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9814,21 +9817,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
       <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10047,7 +10050,7 @@
       <c r="Y5" s="89">
         <v>150</v>
       </c>
-      <c r="Z5" s="158">
+      <c r="Z5" s="120">
         <v>150</v>
       </c>
     </row>
@@ -10292,32 +10295,32 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="153"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="154"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -14614,13 +14617,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="128"/>
       <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -14646,11 +14649,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="157"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="98"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3093AE-BD20-4CB2-A1FE-079F90446DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118542D0-838B-4BF4-AFD4-EF8D376210A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPA Explicações" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1591,9 +1590,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1670,6 +1666,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,68 +1903,68 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="B1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="132"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1973,222 +1972,222 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="138"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="137"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="123"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="123"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="122"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="123"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="124"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,18 +3250,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="144" t="s">
+      <c r="C1" s="121"/>
+      <c r="D1" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -3270,16 +3269,16 @@
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="143" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="145" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
@@ -3293,14 +3292,14 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="122"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="122"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3308,7 +3307,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5302,8 +5301,8 @@
   </sheetPr>
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5320,18 +5319,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147"/>
-      <c r="B1" s="148" t="s">
+      <c r="A1" s="146"/>
+      <c r="B1" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="149" t="s">
+      <c r="C1" s="121"/>
+      <c r="D1" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -5339,16 +5338,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="148" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="145" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -5362,14 +5361,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="122"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="122"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -5377,7 +5376,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -7582,8 +7581,8 @@
   </sheetPr>
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7600,18 +7599,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147"/>
-      <c r="B1" s="148" t="s">
+      <c r="A1" s="146"/>
+      <c r="B1" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="149" t="s">
+      <c r="C1" s="121"/>
+      <c r="D1" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -7619,16 +7618,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="148" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="145" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -7642,14 +7641,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="122"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="122"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -7657,7 +7656,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -7769,7 +7768,7 @@
       </c>
       <c r="C8" s="61">
         <f>C9</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D8" s="61">
         <f t="shared" ref="D8:E8" si="0">D9+D10</f>
@@ -7822,7 +7821,7 @@
       </c>
       <c r="C9" s="63">
         <f>TaxaCondominio!AA10</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D9" s="63">
         <f>TaxaCondominio!AB10</f>
@@ -7872,7 +7871,9 @@
       <c r="B10" s="65">
         <v>36.1</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="65">
+        <v>27.74</v>
+      </c>
       <c r="D10" s="65"/>
       <c r="E10" s="65"/>
       <c r="F10" s="66"/>
@@ -7960,7 +7961,7 @@
       </c>
       <c r="L13" s="68">
         <f t="shared" si="2"/>
-        <v>20.170000000000002</v>
+        <v>0</v>
       </c>
       <c r="M13" s="68">
         <f t="shared" si="2"/>
@@ -8043,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="69">
-        <v>20.170000000000002</v>
+        <v>0</v>
       </c>
       <c r="M15" s="69">
         <v>0</v>
@@ -8074,7 +8075,7 @@
       </c>
       <c r="C17" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>351.24</v>
       </c>
       <c r="D17" s="68">
         <f t="shared" ref="D17:M17" si="4">SUM(D18:D21)</f>
@@ -8125,7 +8126,7 @@
         <v>80.22</v>
       </c>
       <c r="C18" s="70">
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="D18" s="70">
         <v>0</v>
@@ -8166,7 +8167,7 @@
         <v>65.430000000000007</v>
       </c>
       <c r="C19" s="70">
-        <v>0</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="D19" s="70">
         <v>0</v>
@@ -8207,7 +8208,7 @@
         <v>200</v>
       </c>
       <c r="C20" s="69">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D20" s="69">
         <v>0</v>
@@ -8265,39 +8266,39 @@
       </c>
       <c r="C22" s="68">
         <f t="shared" ref="C22:M22" si="5">SUM(C23:C26)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D22" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E22" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F22" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G22" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H22" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I22" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J22" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K22" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L22" s="68">
         <f t="shared" si="5"/>
@@ -8398,31 +8399,31 @@
         <v>150</v>
       </c>
       <c r="C25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K25" s="70">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L25" s="70">
         <v>0</v>
@@ -8472,7 +8473,8 @@
         <v>3980.1</v>
       </c>
       <c r="C28" s="70">
-        <v>0</v>
+        <f>B33+C8</f>
+        <v>3234.45</v>
       </c>
       <c r="D28" s="70">
         <v>0</v>
@@ -8515,7 +8517,7 @@
       </c>
       <c r="C29" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>27.74</v>
       </c>
       <c r="D29" s="70">
         <f t="shared" si="6"/>
@@ -8567,7 +8569,7 @@
       </c>
       <c r="C30" s="70">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>351.24</v>
       </c>
       <c r="D30" s="70">
         <f t="shared" si="8"/>
@@ -8620,39 +8622,39 @@
       </c>
       <c r="C31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K31" s="70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L31" s="70">
         <f t="shared" si="9"/>
@@ -8710,7 +8712,7 @@
       </c>
       <c r="L32" s="70">
         <f t="shared" si="10"/>
-        <v>20.170000000000002</v>
+        <v>0</v>
       </c>
       <c r="M32" s="70">
         <f t="shared" si="9"/>
@@ -8727,43 +8729,43 @@
       </c>
       <c r="C33" s="73">
         <f t="shared" ref="C33:I33" si="11">C28-C30-C31-C32</f>
-        <v>0</v>
+        <v>2733.21</v>
       </c>
       <c r="D33" s="73">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="E33" s="73">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F33" s="73">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="G33" s="73">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="H33" s="73">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="I33" s="73">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="J33" s="70">
         <f>J28-J30-J31</f>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="K33" s="70">
         <f t="shared" ref="K33" si="12">K28+K29-K30-K31</f>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="L33" s="117">
         <f>L28+L29-L30-L31-L32</f>
-        <v>-20.170000000000002</v>
+        <v>0</v>
       </c>
       <c r="M33" s="70">
         <f>M28-M30-M31</f>
@@ -8779,16 +8781,47 @@
         <f>'Fluxo de caixa 2025'!M35 + B25</f>
         <v>-1500</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
+      <c r="C35" s="119">
+        <f>B35+150</f>
+        <v>-1350</v>
+      </c>
+      <c r="D35" s="119">
+        <f t="shared" ref="D35:M35" si="13">C35+150</f>
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="119">
+        <f t="shared" si="13"/>
+        <v>-1050</v>
+      </c>
+      <c r="F35" s="119">
+        <f t="shared" si="13"/>
+        <v>-900</v>
+      </c>
+      <c r="G35" s="119">
+        <f t="shared" si="13"/>
+        <v>-750</v>
+      </c>
+      <c r="H35" s="119">
+        <f t="shared" si="13"/>
+        <v>-600</v>
+      </c>
+      <c r="I35" s="119">
+        <f t="shared" si="13"/>
+        <v>-450</v>
+      </c>
+      <c r="J35" s="119">
+        <f t="shared" si="13"/>
+        <v>-300</v>
+      </c>
+      <c r="K35" s="119">
+        <f t="shared" si="13"/>
+        <v>-150</v>
+      </c>
+      <c r="L35" s="119">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="119"/>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="118"/>
@@ -9794,10 +9827,10 @@
     <tabColor rgb="FF7EBC0A"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9816,25 +9849,25 @@
     <col min="13" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="79"/>
     </row>
-    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>45</v>
       </c>
@@ -9854,7 +9887,7 @@
       <c r="M2" s="81"/>
       <c r="N2" s="79"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81"/>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
@@ -9881,8 +9914,9 @@
       <c r="X3" s="82"/>
       <c r="Y3" s="82"/>
       <c r="Z3" s="82"/>
-    </row>
-    <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="82"/>
+    </row>
+    <row r="4" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>46</v>
       </c>
@@ -9973,8 +10007,11 @@
       <c r="Z4" s="84">
         <v>46023</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="84">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
         <v>1</v>
       </c>
@@ -10050,11 +10087,14 @@
       <c r="Y5" s="89">
         <v>150</v>
       </c>
-      <c r="Z5" s="120">
+      <c r="Z5" s="158">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="158">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
         <v>2</v>
       </c>
@@ -10133,8 +10173,11 @@
       <c r="Z6" s="89">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="89">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
         <v>3</v>
       </c>
@@ -10213,8 +10256,11 @@
       <c r="Z7" s="89">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="89">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
         <v>4</v>
       </c>
@@ -10293,36 +10339,52 @@
       <c r="Z8" s="89">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="154"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="89">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="151"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="153"/>
+    </row>
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
         <v>47</v>
       </c>
@@ -10426,8 +10488,12 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="91">
+        <f t="shared" ref="AA10" si="1">SUM(AA5:AA8)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -10443,7 +10509,7 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -10470,8 +10536,9 @@
       <c r="X12" s="92"/>
       <c r="Y12" s="92"/>
       <c r="Z12" s="92"/>
-    </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="92"/>
+    </row>
+    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
@@ -10487,7 +10554,7 @@
       <c r="M13" s="79"/>
       <c r="N13" s="79"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -10503,7 +10570,7 @@
       <c r="M14" s="79"/>
       <c r="N14" s="79"/>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79"/>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
@@ -10519,7 +10586,7 @@
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
@@ -14580,10 +14647,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A9:M9"/>
     <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:AM9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14617,13 +14685,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="128"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -14649,11 +14717,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="158"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="98"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/planilhas/Contabilidade Condominio.xlsx
+++ b/planilhas/Contabilidade Condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Condominio\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118542D0-838B-4BF4-AFD4-EF8D376210A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B06688-1002-4BBB-8C34-82858E9F7873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1590,6 +1590,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1666,9 +1669,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1903,68 +1903,68 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="127"/>
+      <c r="B1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1972,222 +1972,222 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="138"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="123"/>
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="123"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,18 +3250,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141"/>
-      <c r="B1" s="142" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="143" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -3269,16 +3269,16 @@
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="142" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="144" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
@@ -3292,14 +3292,14 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="121"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3307,7 +3307,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5301,8 +5301,8 @@
   </sheetPr>
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5319,18 +5319,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147" t="s">
+      <c r="A1" s="147"/>
+      <c r="B1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="148" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -5338,16 +5338,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="147" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="144" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -5361,14 +5361,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="121"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -5376,7 +5376,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -7581,8 +7581,8 @@
   </sheetPr>
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7599,18 +7599,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147" t="s">
+      <c r="A1" s="147"/>
+      <c r="B1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="148" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
       <c r="I1" s="45"/>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -7618,16 +7618,16 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="147" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="144" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
@@ -7641,14 +7641,14 @@
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="121"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
@@ -7656,7 +7656,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -7731,7 +7731,10 @@
         <f>'Fluxo de caixa 2025'!M33+B8-B17-B22</f>
         <v>2634.45</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <f>C33</f>
+        <v>2733.21</v>
+      </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
@@ -8786,7 +8789,7 @@
         <v>-1350</v>
       </c>
       <c r="D35" s="119">
-        <f t="shared" ref="D35:M35" si="13">C35+150</f>
+        <f t="shared" ref="D35:L35" si="13">C35+150</f>
         <v>-1200</v>
       </c>
       <c r="E35" s="119">
@@ -9850,21 +9853,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
       <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10087,10 +10090,10 @@
       <c r="Y5" s="89">
         <v>150</v>
       </c>
-      <c r="Z5" s="158">
+      <c r="Z5" s="120">
         <v>150</v>
       </c>
-      <c r="AA5" s="158">
+      <c r="AA5" s="120">
         <v>150</v>
       </c>
     </row>
@@ -10344,45 +10347,45 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="153"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="153"/>
+      <c r="AE9" s="153"/>
+      <c r="AF9" s="153"/>
+      <c r="AG9" s="153"/>
+      <c r="AH9" s="153"/>
+      <c r="AI9" s="153"/>
+      <c r="AJ9" s="153"/>
+      <c r="AK9" s="153"/>
+      <c r="AL9" s="153"/>
+      <c r="AM9" s="154"/>
     </row>
     <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
@@ -14685,13 +14688,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="128"/>
       <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -14717,11 +14720,11 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="157"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="98"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
